--- a/RMIS/測試資料/道路開發專案3.xlsx
+++ b/RMIS/測試資料/道路開發專案3.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KingSu\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KingSu\Documents\RMIS\RMIS\測試資料\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1937099A-85A8-459D-B29B-23887886EE79}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{725BD2BB-4A5B-403E-A689-0209554FD20A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1680" yWindow="2220" windowWidth="25920" windowHeight="11265" xr2:uid="{C0B51959-B82B-48DE-B9D0-D3A69214C1D8}"/>
+    <workbookView xWindow="1050" yWindow="2715" windowWidth="25920" windowHeight="11265" xr2:uid="{C0B51959-B82B-48DE-B9D0-D3A69214C1D8}"/>
   </bookViews>
   <sheets>
     <sheet name="Data_with_Restored_____" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="291" uniqueCount="197">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="275" uniqueCount="187">
   <si>
     <t>專案代號</t>
   </si>
@@ -431,36 +431,6 @@
   </si>
   <si>
     <t>中豐路一段至中豐路一段</t>
-  </si>
-  <si>
-    <t>ynfky8</t>
-  </si>
-  <si>
-    <t>張明智議員</t>
-  </si>
-  <si>
-    <t>107公尺</t>
-  </si>
-  <si>
-    <t>1274萬</t>
-  </si>
-  <si>
-    <t>1035萬</t>
-  </si>
-  <si>
-    <t>305萬</t>
-  </si>
-  <si>
-    <t>4181萬</t>
-  </si>
-  <si>
-    <t>["24.985980292876985, 121.3072348873328", "25.000588679338215, 121.30169108579314", "24.994854620648002, 121.29429226413534", "24.99062501398522, 121.29335602476493"]</t>
-  </si>
-  <si>
-    <t>{'ynfky8_01.png': '25.000084, 121.301984'}</t>
-  </si>
-  <si>
-    <t>山頂段至中豐路一段</t>
   </si>
   <si>
     <t>790e9s</t>
@@ -1584,10 +1554,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF51C079-E862-4CDD-83E8-BFCBF394C61C}">
-  <dimension ref="A1:S18"/>
+  <dimension ref="A1:S17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R3" sqref="R3"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="J14" sqref="J14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -1656,7 +1626,7 @@
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>195</v>
+        <v>185</v>
       </c>
       <c r="B2" t="s">
         <v>70</v>
@@ -1665,22 +1635,22 @@
         <v>71</v>
       </c>
       <c r="D2" t="s">
-        <v>194</v>
+        <v>184</v>
       </c>
       <c r="E2" t="s">
-        <v>193</v>
+        <v>183</v>
       </c>
       <c r="F2" t="s">
-        <v>192</v>
+        <v>182</v>
       </c>
       <c r="G2" t="s">
-        <v>191</v>
+        <v>181</v>
       </c>
       <c r="H2" t="s">
-        <v>190</v>
+        <v>180</v>
       </c>
       <c r="I2" t="s">
-        <v>177</v>
+        <v>167</v>
       </c>
       <c r="J2">
         <v>4</v>
@@ -1692,30 +1662,30 @@
         <v>4</v>
       </c>
       <c r="M2" t="s">
-        <v>189</v>
+        <v>179</v>
       </c>
       <c r="N2" t="s">
-        <v>189</v>
+        <v>179</v>
       </c>
       <c r="O2" t="s">
-        <v>180</v>
+        <v>170</v>
       </c>
       <c r="P2" t="s">
-        <v>188</v>
+        <v>178</v>
       </c>
       <c r="Q2" t="s">
-        <v>187</v>
+        <v>177</v>
       </c>
       <c r="R2" t="s">
-        <v>186</v>
+        <v>176</v>
       </c>
       <c r="S2" t="s">
-        <v>185</v>
+        <v>175</v>
       </c>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>173</v>
+        <v>163</v>
       </c>
       <c r="B3" t="s">
         <v>20</v>
@@ -1727,19 +1697,19 @@
         <v>73</v>
       </c>
       <c r="E3" t="s">
+        <v>164</v>
+      </c>
+      <c r="F3" t="s">
         <v>174</v>
       </c>
-      <c r="F3" t="s">
-        <v>184</v>
-      </c>
       <c r="G3" t="s">
-        <v>175</v>
+        <v>165</v>
       </c>
       <c r="H3" t="s">
-        <v>176</v>
+        <v>166</v>
       </c>
       <c r="I3" t="s">
-        <v>177</v>
+        <v>167</v>
       </c>
       <c r="J3">
         <v>2</v>
@@ -1751,25 +1721,25 @@
         <v>0</v>
       </c>
       <c r="M3" t="s">
-        <v>178</v>
+        <v>168</v>
       </c>
       <c r="N3" t="s">
-        <v>179</v>
+        <v>169</v>
       </c>
       <c r="O3" t="s">
-        <v>180</v>
+        <v>170</v>
       </c>
       <c r="P3" t="s">
-        <v>181</v>
+        <v>171</v>
       </c>
       <c r="Q3" t="s">
-        <v>182</v>
+        <v>172</v>
       </c>
       <c r="R3" t="s">
-        <v>196</v>
+        <v>186</v>
       </c>
       <c r="S3" t="s">
-        <v>183</v>
+        <v>173</v>
       </c>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.25">
@@ -2426,55 +2396,55 @@
         <v>137</v>
       </c>
       <c r="B15" t="s">
+        <v>70</v>
+      </c>
+      <c r="C15" t="s">
+        <v>21</v>
+      </c>
+      <c r="D15" t="s">
+        <v>22</v>
+      </c>
+      <c r="E15" t="s">
+        <v>73</v>
+      </c>
+      <c r="F15" t="s">
+        <v>145</v>
+      </c>
+      <c r="G15" t="s">
         <v>138</v>
       </c>
-      <c r="C15" t="s">
-        <v>71</v>
-      </c>
-      <c r="D15" t="s">
-        <v>23</v>
-      </c>
-      <c r="E15" t="s">
-        <v>22</v>
-      </c>
-      <c r="F15" t="s">
-        <v>146</v>
-      </c>
-      <c r="G15" t="s">
-        <v>139</v>
-      </c>
       <c r="H15" t="s">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="I15" t="s">
         <v>26</v>
       </c>
       <c r="J15">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K15">
+        <v>1</v>
+      </c>
+      <c r="L15">
         <v>2</v>
       </c>
-      <c r="L15">
-        <v>1</v>
-      </c>
       <c r="M15" t="s">
+        <v>139</v>
+      </c>
+      <c r="N15" t="s">
         <v>140</v>
       </c>
-      <c r="N15" t="s">
+      <c r="O15" t="s">
         <v>141</v>
       </c>
-      <c r="O15" t="s">
+      <c r="P15" t="s">
         <v>142</v>
       </c>
-      <c r="P15" t="s">
+      <c r="Q15" t="s">
         <v>143</v>
       </c>
-      <c r="Q15" t="s">
+      <c r="R15" t="s">
         <v>144</v>
-      </c>
-      <c r="R15" t="s">
-        <v>145</v>
       </c>
       <c r="S15" t="s">
         <v>135</v>
@@ -2482,58 +2452,58 @@
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B16" t="s">
-        <v>70</v>
+        <v>49</v>
       </c>
       <c r="C16" t="s">
-        <v>21</v>
+        <v>50</v>
       </c>
       <c r="D16" t="s">
         <v>22</v>
       </c>
       <c r="E16" t="s">
-        <v>73</v>
+        <v>23</v>
       </c>
       <c r="F16" t="s">
-        <v>155</v>
+        <v>34</v>
       </c>
       <c r="G16" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="H16" t="s">
-        <v>25</v>
+        <v>40</v>
       </c>
       <c r="I16" t="s">
         <v>26</v>
       </c>
       <c r="J16">
+        <v>5</v>
+      </c>
+      <c r="K16">
         <v>4</v>
       </c>
-      <c r="K16">
-        <v>1</v>
-      </c>
       <c r="L16">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="M16" t="s">
+        <v>148</v>
+      </c>
+      <c r="N16" t="s">
         <v>149</v>
       </c>
-      <c r="N16" t="s">
+      <c r="O16" t="s">
         <v>150</v>
       </c>
-      <c r="O16" t="s">
+      <c r="P16" t="s">
         <v>151</v>
       </c>
-      <c r="P16" t="s">
+      <c r="Q16" t="s">
         <v>152</v>
       </c>
-      <c r="Q16" t="s">
+      <c r="R16" t="s">
         <v>153</v>
-      </c>
-      <c r="R16" t="s">
-        <v>154</v>
       </c>
       <c r="S16" t="s">
         <v>135</v>
@@ -2541,119 +2511,60 @@
     </row>
     <row r="17" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="B17" t="s">
-        <v>49</v>
+        <v>70</v>
       </c>
       <c r="C17" t="s">
-        <v>50</v>
+        <v>71</v>
       </c>
       <c r="D17" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E17" t="s">
-        <v>23</v>
+        <v>38</v>
       </c>
       <c r="F17" t="s">
-        <v>34</v>
+        <v>162</v>
       </c>
       <c r="G17" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="H17" t="s">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="I17" t="s">
         <v>26</v>
       </c>
       <c r="J17">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="K17">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="L17">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="M17" t="s">
+        <v>156</v>
+      </c>
+      <c r="N17" t="s">
+        <v>157</v>
+      </c>
+      <c r="O17" t="s">
         <v>158</v>
       </c>
-      <c r="N17" t="s">
+      <c r="P17" t="s">
         <v>159</v>
       </c>
-      <c r="O17" t="s">
+      <c r="Q17" t="s">
         <v>160</v>
       </c>
-      <c r="P17" t="s">
+      <c r="R17" t="s">
         <v>161</v>
       </c>
-      <c r="Q17" t="s">
-        <v>162</v>
-      </c>
-      <c r="R17" t="s">
-        <v>163</v>
-      </c>
       <c r="S17" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>164</v>
-      </c>
-      <c r="B18" t="s">
-        <v>70</v>
-      </c>
-      <c r="C18" t="s">
-        <v>71</v>
-      </c>
-      <c r="D18" t="s">
-        <v>23</v>
-      </c>
-      <c r="E18" t="s">
-        <v>38</v>
-      </c>
-      <c r="F18" t="s">
-        <v>172</v>
-      </c>
-      <c r="G18" t="s">
-        <v>165</v>
-      </c>
-      <c r="H18" t="s">
-        <v>25</v>
-      </c>
-      <c r="I18" t="s">
-        <v>26</v>
-      </c>
-      <c r="J18">
-        <v>2</v>
-      </c>
-      <c r="K18">
-        <v>2</v>
-      </c>
-      <c r="L18">
-        <v>2</v>
-      </c>
-      <c r="M18" t="s">
-        <v>166</v>
-      </c>
-      <c r="N18" t="s">
-        <v>167</v>
-      </c>
-      <c r="O18" t="s">
-        <v>168</v>
-      </c>
-      <c r="P18" t="s">
-        <v>169</v>
-      </c>
-      <c r="Q18" t="s">
-        <v>170</v>
-      </c>
-      <c r="R18" t="s">
-        <v>171</v>
-      </c>
-      <c r="S18" t="s">
         <v>135</v>
       </c>
     </row>
